--- a/countries/countries-data.xlsx
+++ b/countries/countries-data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="621">
   <si>
     <t>country-code</t>
   </si>
@@ -40,6 +40,9 @@
     <t>population</t>
   </si>
   <si>
+    <t>developed</t>
+  </si>
+  <si>
     <t>AFG</t>
   </si>
   <si>
@@ -1868,6 +1871,12 @@
   </si>
   <si>
     <t>Lower middle income</t>
+  </si>
+  <si>
+    <t>Developing</t>
+  </si>
+  <si>
+    <t>Developed</t>
   </si>
 </sst>
 </file>
@@ -2238,13 +2247,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2269,25 +2278,28 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G2">
         <v>570</v>
@@ -2295,25 +2307,28 @@
       <c r="H2">
         <v>33736494</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G3">
         <v>4320</v>
@@ -2321,25 +2336,28 @@
       <c r="H3">
         <v>2923352</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G4">
         <v>3960</v>
@@ -2347,25 +2365,28 @@
       <c r="H4">
         <v>39871528</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F5" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G5">
         <v>36987</v>
@@ -2373,25 +2394,28 @@
       <c r="H5">
         <v>78014</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G6">
         <v>3330</v>
@@ -2399,25 +2423,28 @@
       <c r="H6">
         <v>27859305</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G7">
         <v>14170</v>
@@ -2425,25 +2452,28 @@
       <c r="H7">
         <v>99923</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G8">
         <v>13040</v>
@@ -2451,25 +2481,28 @@
       <c r="H8">
         <v>43417765</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D9" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G9">
         <v>4000</v>
@@ -2477,25 +2510,28 @@
       <c r="H9">
         <v>2916950</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G10">
         <v>51360</v>
@@ -2503,25 +2539,28 @@
       <c r="H10">
         <v>23799556</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E11" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F11" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G11">
         <v>45440</v>
@@ -2529,25 +2568,28 @@
       <c r="H11">
         <v>8678657</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G12">
         <v>4080</v>
@@ -2555,25 +2597,28 @@
       <c r="H12">
         <v>9617484</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G13">
         <v>29170</v>
@@ -2581,25 +2626,28 @@
       <c r="H13">
         <v>386838</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D14" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E14" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F14" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G14">
         <v>20240</v>
@@ -2607,25 +2655,28 @@
       <c r="H14">
         <v>1371855</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D15" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E15" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F15" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G15">
         <v>1470</v>
@@ -2633,25 +2684,28 @@
       <c r="H15">
         <v>161200886</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E16" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F16" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G16">
         <v>15540</v>
@@ -2659,25 +2713,28 @@
       <c r="H16">
         <v>284217</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D17" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F17" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G17">
         <v>5280</v>
@@ -2685,25 +2742,28 @@
       <c r="H17">
         <v>9485772</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D18" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F18" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G18">
         <v>41790</v>
@@ -2711,25 +2771,28 @@
       <c r="H18">
         <v>11287940</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D19" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E19" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G19">
         <v>4390</v>
@@ -2737,25 +2800,28 @@
       <c r="H19">
         <v>359288</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D20" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F20" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G20">
         <v>800</v>
@@ -2763,25 +2829,28 @@
       <c r="H20">
         <v>10575952</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D21" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E21" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F21" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G21">
         <v>2720</v>
@@ -2789,25 +2858,28 @@
       <c r="H21">
         <v>787386</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D22" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E22" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F22" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G22">
         <v>3130</v>
@@ -2815,25 +2887,28 @@
       <c r="H22">
         <v>10724705</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D23" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E23" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F23" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G23">
         <v>4940</v>
@@ -2841,25 +2916,28 @@
       <c r="H23">
         <v>3535961</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D24" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E24" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F24" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G24">
         <v>6820</v>
@@ -2867,25 +2945,28 @@
       <c r="H24">
         <v>2209197</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D25" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E25" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G25">
         <v>8580</v>
@@ -2893,25 +2974,28 @@
       <c r="H25">
         <v>205962108</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D26" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E26" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F26" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G26">
         <v>29600</v>
@@ -2919,25 +3003,28 @@
       <c r="H26">
         <v>417542</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D27" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E27" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F27" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G27">
         <v>7760</v>
@@ -2945,25 +3032,28 @@
       <c r="H27">
         <v>7177396</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D28" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E28" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F28" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G28">
         <v>610</v>
@@ -2971,25 +3061,28 @@
       <c r="H28">
         <v>18110624</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D29" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E29" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F29" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G29">
         <v>290</v>
@@ -2997,25 +3090,28 @@
       <c r="H29">
         <v>10199270</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E30" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F30" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G30">
         <v>2990</v>
@@ -3023,25 +3119,28 @@
       <c r="H30">
         <v>15517635</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D31" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E31" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F31" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G31">
         <v>1230</v>
@@ -3049,25 +3148,28 @@
       <c r="H31">
         <v>22834522</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D32" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E32" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F32" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G32">
         <v>1360</v>
@@ -3075,25 +3177,28 @@
       <c r="H32">
         <v>35949709</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D33" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E33" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F33" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G33">
         <v>42870</v>
@@ -3101,25 +3206,28 @@
       <c r="H33">
         <v>532913</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D34" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E34" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F34" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G34">
         <v>390</v>
@@ -3127,25 +3235,28 @@
       <c r="H34">
         <v>4546100</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D35" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E35" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F35" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G35">
         <v>630</v>
@@ -3153,25 +3264,28 @@
       <c r="H35">
         <v>14009413</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D36" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E36" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F36" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G36">
         <v>13610</v>
@@ -3179,25 +3293,28 @@
       <c r="H36">
         <v>17762681</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D37" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E37" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F37" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G37">
         <v>8690</v>
@@ -3205,25 +3322,28 @@
       <c r="H37">
         <v>1397028553</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D38" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E38" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F38" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G38">
         <v>5830</v>
@@ -3231,25 +3351,28 @@
       <c r="H38">
         <v>48228697</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D39" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E39" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F39" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G39">
         <v>760</v>
@@ -3257,25 +3380,28 @@
       <c r="H39">
         <v>777424</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D40" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E40" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F40" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G40">
         <v>1360</v>
@@ -3283,25 +3409,28 @@
       <c r="H40">
         <v>4995648</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D41" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E41" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F41" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G41">
         <v>11040</v>
@@ -3309,25 +3438,28 @@
       <c r="H41">
         <v>4807852</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D42" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E42" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F42" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G42">
         <v>1540</v>
@@ -3335,25 +3467,28 @@
       <c r="H42">
         <v>23108472</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D43" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E43" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F43" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G43">
         <v>12430</v>
@@ -3361,25 +3496,28 @@
       <c r="H43">
         <v>4236016</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D44" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E44" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F44" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G44">
         <v>7709</v>
@@ -3387,25 +3525,28 @@
       <c r="H44">
         <v>11461432</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D45" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E45" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G45">
         <v>23719</v>
@@ -3413,25 +3554,28 @@
       <c r="H45">
         <v>1160985</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D46" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E46" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F46" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G46">
         <v>18160</v>
@@ -3439,25 +3583,28 @@
       <c r="H46">
         <v>10603762</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D47" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E47" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F47" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G47">
         <v>667</v>
@@ -3465,25 +3612,28 @@
       <c r="H47">
         <v>25243917</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D48" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E48" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F48" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G48">
         <v>450</v>
@@ -3491,25 +3641,28 @@
       <c r="H48">
         <v>76196619</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D49" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E49" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F49" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G49">
         <v>55220</v>
@@ -3517,25 +3670,28 @@
       <c r="H49">
         <v>5688695</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D50" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E50" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F50" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G50">
         <v>1880</v>
@@ -3543,25 +3699,28 @@
       <c r="H50">
         <v>927414</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D51" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E51" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F51" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G51">
         <v>6990</v>
@@ -3569,25 +3728,28 @@
       <c r="H51">
         <v>73162</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D52" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E52" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F52" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G52">
         <v>6630</v>
@@ -3595,25 +3757,28 @@
       <c r="H52">
         <v>10528394</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D53" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E53" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F53" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G53">
         <v>5890</v>
@@ -3621,25 +3786,28 @@
       <c r="H53">
         <v>16144368</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C54" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D54" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E54" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F54" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G54">
         <v>3010</v>
@@ -3647,25 +3815,28 @@
       <c r="H54">
         <v>93778172</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D55" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E55" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F55" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G55">
         <v>3560</v>
@@ -3673,25 +3844,28 @@
       <c r="H55">
         <v>6312478</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D56" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E56" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F56" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G56">
         <v>7060</v>
@@ -3699,25 +3873,28 @@
       <c r="H56">
         <v>1175389</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D57" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E57" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F57" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G57">
         <v>1083</v>
@@ -3725,25 +3902,28 @@
       <c r="H57">
         <v>4846976</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D58" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E58" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F58" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G58">
         <v>18190</v>
@@ -3751,25 +3931,28 @@
       <c r="H58">
         <v>1315321</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D59" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E59" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F59" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G59">
         <v>740</v>
@@ -3777,25 +3960,28 @@
       <c r="H59">
         <v>99873033</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D60" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E60" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F60" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G60">
         <v>4970</v>
@@ -3803,25 +3989,28 @@
       <c r="H60">
         <v>892149</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D61" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E61" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F61" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G61">
         <v>44580</v>
@@ -3829,25 +4018,28 @@
       <c r="H61">
         <v>5481966</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D62" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E62" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F62" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G62">
         <v>37970</v>
@@ -3855,25 +4047,28 @@
       <c r="H62">
         <v>64457201</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D63" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E63" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F63" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G63">
         <v>6610</v>
@@ -3881,25 +4076,28 @@
       <c r="H63">
         <v>1930175</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D64" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E64" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F64" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G64">
         <v>450</v>
@@ -3907,25 +4105,28 @@
       <c r="H64">
         <v>1977590</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D65" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E65" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F65" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G65">
         <v>3790</v>
@@ -3933,25 +4134,28 @@
       <c r="H65">
         <v>3951524</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D66" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E66" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F66" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G66">
         <v>43490</v>
@@ -3959,25 +4163,28 @@
       <c r="H66">
         <v>81707789</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D67" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E67" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F67" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G67">
         <v>1490</v>
@@ -3985,25 +4192,28 @@
       <c r="H67">
         <v>27582821</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D68" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E68" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F68" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G68">
         <v>18090</v>
@@ -4011,25 +4221,28 @@
       <c r="H68">
         <v>11217800</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D69" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E69" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F69" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G69">
         <v>9650</v>
@@ -4037,25 +4250,28 @@
       <c r="H69">
         <v>106823</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D70" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E70" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F70" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G70">
         <v>4060</v>
@@ -4063,25 +4279,28 @@
       <c r="H70">
         <v>16252429</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D71" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E71" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F71" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G71">
         <v>820</v>
@@ -4089,25 +4308,28 @@
       <c r="H71">
         <v>12091533</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D72" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E72" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F72" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G72">
         <v>660</v>
@@ -4115,25 +4337,28 @@
       <c r="H72">
         <v>1770526</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D73" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E73" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F73" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G73">
         <v>4460</v>
@@ -4141,25 +4366,28 @@
       <c r="H73">
         <v>768514</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D74" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E74" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F74" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G74">
         <v>760</v>
@@ -4167,25 +4395,28 @@
       <c r="H74">
         <v>10711061</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D75" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E75" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F75" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G75">
         <v>2250</v>
@@ -4193,25 +4424,28 @@
       <c r="H75">
         <v>8960829</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D76" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E76" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F76" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G76">
         <v>12870</v>
@@ -4219,25 +4453,28 @@
       <c r="H76">
         <v>9783925</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C77" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D77" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E77" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F77" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G77">
         <v>60830</v>
@@ -4245,25 +4482,28 @@
       <c r="H77">
         <v>330243</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D78" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E78" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F78" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G78">
         <v>1820</v>
@@ -4271,25 +4511,28 @@
       <c r="H78">
         <v>1309053980</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D79" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E79" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F79" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G79">
         <v>3540</v>
@@ -4297,25 +4540,28 @@
       <c r="H79">
         <v>258162113</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D80" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E80" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F80" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G80">
         <v>5400</v>
@@ -4323,25 +4569,28 @@
       <c r="H80">
         <v>79360487</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D81" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E81" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F81" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G81">
         <v>4770</v>
@@ -4349,25 +4598,28 @@
       <c r="H81">
         <v>36115649</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D82" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E82" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F82" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G82">
         <v>55290</v>
@@ -4375,25 +4627,28 @@
       <c r="H82">
         <v>4700107</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D83" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E83" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F83" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G83">
         <v>37270</v>
@@ -4401,25 +4656,28 @@
       <c r="H83">
         <v>8064547</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D84" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E84" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F84" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G84">
         <v>31020</v>
@@ -4427,25 +4685,28 @@
       <c r="H84">
         <v>59504212</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D85" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E85" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F85" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G85">
         <v>4750</v>
@@ -4453,25 +4714,28 @@
       <c r="H85">
         <v>2871934</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D86" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E86" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F86" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G86">
         <v>38550</v>
@@ -4479,25 +4743,28 @@
       <c r="H86">
         <v>127974958</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D87" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E87" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F87" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G87">
         <v>3980</v>
@@ -4505,25 +4772,28 @@
       <c r="H87">
         <v>9159302</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D88" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E88" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F88" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G88">
         <v>7890</v>
@@ -4531,25 +4801,28 @@
       <c r="H88">
         <v>17749648</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D89" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E89" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F89" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G89">
         <v>1440</v>
@@ -4557,25 +4830,28 @@
       <c r="H89">
         <v>47236259</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D90" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E90" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F90" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G90">
         <v>2780</v>
@@ -4583,25 +4859,28 @@
       <c r="H90">
         <v>112407</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D91" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E91" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F91" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G91">
         <v>31430</v>
@@ -4609,25 +4888,28 @@
       <c r="H91">
         <v>3935794</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D92" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E92" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F92" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G92">
         <v>1130</v>
@@ -4635,25 +4917,28 @@
       <c r="H92">
         <v>5865401</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D93" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E93" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F93" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G93">
         <v>2270</v>
@@ -4661,25 +4946,28 @@
       <c r="H93">
         <v>6663967</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D94" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E94" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F94" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G94">
         <v>14740</v>
@@ -4687,25 +4975,28 @@
       <c r="H94">
         <v>1992663</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D95" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E95" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F95" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G95">
         <v>8310</v>
@@ -4713,25 +5004,28 @@
       <c r="H95">
         <v>5851479</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D96" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E96" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F96" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G96">
         <v>1280</v>
@@ -4739,25 +5033,28 @@
       <c r="H96">
         <v>2174645</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D97" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E97" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F97" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G97">
         <v>380</v>
@@ -4765,25 +5062,28 @@
       <c r="H97">
         <v>4499621</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D98" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E98" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F98" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G98">
         <v>6540</v>
@@ -4791,25 +5091,28 @@
       <c r="H98">
         <v>6234955</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D99" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E99" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F99" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G99">
         <v>134660</v>
@@ -4817,25 +5120,28 @@
       <c r="H99">
         <v>37403</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D100" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E100" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F100" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G100">
         <v>15200</v>
@@ -4843,25 +5149,28 @@
       <c r="H100">
         <v>2931926</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D101" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E101" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F101" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G101">
         <v>70260</v>
@@ -4869,25 +5178,28 @@
       <c r="H101">
         <v>566741</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D102" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E102" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F102" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G102">
         <v>400</v>
@@ -4895,25 +5207,28 @@
       <c r="H102">
         <v>24234088</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D103" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E103" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F103" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G103">
         <v>320</v>
@@ -4921,25 +5236,28 @@
       <c r="H103">
         <v>17573607</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D104" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E104" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F104" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G104">
         <v>9650</v>
@@ -4947,25 +5265,28 @@
       <c r="H104">
         <v>30723155</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D105" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E105" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F105" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G105">
         <v>9570</v>
@@ -4973,25 +5294,28 @@
       <c r="H105">
         <v>418403</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D106" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E106" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F106" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G106">
         <v>770</v>
@@ -4999,25 +5323,28 @@
       <c r="H106">
         <v>17467905</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D107" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E107" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F107" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G107">
         <v>23810</v>
@@ -5025,25 +5352,28 @@
       <c r="H107">
         <v>427616</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D108" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E108" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F108" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G108">
         <v>4800</v>
@@ -5051,25 +5381,28 @@
       <c r="H108">
         <v>52994</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D109" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E109" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F109" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G109">
         <v>1100</v>
@@ -5077,25 +5410,28 @@
       <c r="H109">
         <v>4182341</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D110" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E110" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F110" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G110">
         <v>10140</v>
@@ -5103,25 +5439,28 @@
       <c r="H110">
         <v>1259456</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D111" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E111" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F111" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G111">
         <v>8610</v>
@@ -5129,25 +5468,28 @@
       <c r="H111">
         <v>125890949</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D112" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E112" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F112" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G112">
         <v>3590</v>
@@ -5155,25 +5497,28 @@
       <c r="H112">
         <v>104433</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D113" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E113" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F113" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G113">
         <v>168004</v>
@@ -5181,25 +5526,28 @@
       <c r="H113">
         <v>38307</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D114" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E114" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F114" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G114">
         <v>3290</v>
@@ -5207,25 +5555,28 @@
       <c r="H114">
         <v>2976877</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D115" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E115" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F115" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G115">
         <v>7350</v>
@@ -5233,25 +5584,28 @@
       <c r="H115">
         <v>628178</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D116" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E116" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F116" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G116">
         <v>2863</v>
@@ -5259,25 +5613,28 @@
       <c r="H116">
         <v>34803322</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D117" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E117" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F117" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G117">
         <v>420</v>
@@ -5285,25 +5642,28 @@
       <c r="H117">
         <v>28010691</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D118" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E118" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F118" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G118">
         <v>1190</v>
@@ -5311,25 +5671,28 @@
       <c r="H118">
         <v>52403669</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D119" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E119" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F119" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G119">
         <v>4600</v>
@@ -5337,25 +5700,28 @@
       <c r="H119">
         <v>2425561</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D120" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E120" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F120" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G120">
         <v>10220</v>
@@ -5363,25 +5729,28 @@
       <c r="H120">
         <v>11260</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D121" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E121" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F121" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G121">
         <v>790</v>
@@ -5389,25 +5758,28 @@
       <c r="H121">
         <v>28656282</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D122" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E122" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F122" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G122">
         <v>46180</v>
@@ -5415,25 +5787,28 @@
       <c r="H122">
         <v>16938499</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D123" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E123" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F123" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G123">
         <v>38970</v>
@@ -5441,25 +5816,28 @@
       <c r="H123">
         <v>4614532</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D124" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E124" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F124" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G124">
         <v>2130</v>
@@ -5467,25 +5845,28 @@
       <c r="H124">
         <v>6082035</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D125" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E125" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F125" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G125">
         <v>360</v>
@@ -5493,25 +5874,28 @@
       <c r="H125">
         <v>19896965</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D126" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E126" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F126" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G126">
         <v>2080</v>
@@ -5519,25 +5903,28 @@
       <c r="H126">
         <v>181181744</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D127" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E127" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F127" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G127">
         <v>75990</v>
@@ -5545,25 +5932,28 @@
       <c r="H127">
         <v>5199836</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D128" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E128" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F128" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G128">
         <v>14440</v>
@@ -5571,25 +5961,28 @@
       <c r="H128">
         <v>4199810</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D129" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E129" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F129" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G129">
         <v>1580</v>
@@ -5597,25 +5990,28 @@
       <c r="H129">
         <v>189380513</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D130" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E130" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F130" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G130">
         <v>12530</v>
@@ -5623,25 +6019,28 @@
       <c r="H130">
         <v>21288</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D131" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E131" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F131" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G131">
         <v>13100</v>
@@ -5649,25 +6048,28 @@
       <c r="H131">
         <v>3969249</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D132" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E132" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F132" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G132">
         <v>2410</v>
@@ -5675,25 +6077,28 @@
       <c r="H132">
         <v>7919825</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D133" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E133" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F133" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G133">
         <v>3920</v>
@@ -5701,25 +6106,28 @@
       <c r="H133">
         <v>6639119</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D134" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E134" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F134" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G134">
         <v>5970</v>
@@ -5727,25 +6135,28 @@
       <c r="H134">
         <v>31376671</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D135" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E135" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F135" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G135">
         <v>3660</v>
@@ -5753,25 +6164,28 @@
       <c r="H135">
         <v>101716359</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D136" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E136" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F136" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G136">
         <v>12710</v>
@@ -5779,25 +6193,28 @@
       <c r="H136">
         <v>38265226</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D137" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E137" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F137" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G137">
         <v>19820</v>
@@ -5805,25 +6222,28 @@
       <c r="H137">
         <v>10418473</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D138" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E138" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F138" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G138">
         <v>61070</v>
@@ -5831,25 +6251,28 @@
       <c r="H138">
         <v>2481539</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D139" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E139" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F139" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G139">
         <v>28380</v>
@@ -5857,25 +6280,28 @@
       <c r="H139">
         <v>50593662</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D140" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E140" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F140" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G140">
         <v>2180</v>
@@ -5883,25 +6309,28 @@
       <c r="H140">
         <v>4065980</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D141" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E141" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F141" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G141">
         <v>9970</v>
@@ -5909,25 +6338,28 @@
       <c r="H141">
         <v>19876621</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D142" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E142" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F142" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G142">
         <v>9231</v>
@@ -5935,25 +6367,28 @@
       <c r="H142">
         <v>143888004</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D143" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E143" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F143" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G143">
         <v>720</v>
@@ -5961,25 +6396,28 @@
       <c r="H143">
         <v>11629553</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D144" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E144" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F144" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G144">
         <v>16030</v>
@@ -5987,25 +6425,28 @@
       <c r="H144">
         <v>54288</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D145" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E145" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F145" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G145">
         <v>8780</v>
@@ -6013,25 +6454,28 @@
       <c r="H145">
         <v>177206</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D146" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E146" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F146" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G146">
         <v>6990</v>
@@ -6039,25 +6483,28 @@
       <c r="H146">
         <v>109455</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D147" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E147" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F147" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G147">
         <v>4100</v>
@@ -6065,25 +6512,28 @@
       <c r="H147">
         <v>193759</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D148" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E148" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F148" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G148">
         <v>40586</v>
@@ -6091,25 +6541,28 @@
       <c r="H148">
         <v>32960</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D149" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E149" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F149" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G149">
         <v>1770</v>
@@ -6117,25 +6570,28 @@
       <c r="H149">
         <v>195553</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B150" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D150" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E150" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F150" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G150">
         <v>20080</v>
@@ -6143,25 +6599,28 @@
       <c r="H150">
         <v>31557144</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D151" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E151" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F151" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G151">
         <v>950</v>
@@ -6169,25 +6628,28 @@
       <c r="H151">
         <v>14976994</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D152" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E152" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F152" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G152">
         <v>5180</v>
@@ -6195,25 +6657,28 @@
       <c r="H152">
         <v>8851280</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B153" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D153" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E153" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F153" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G153">
         <v>14180</v>
@@ -6221,25 +6686,28 @@
       <c r="H153">
         <v>93742</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B154" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D154" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E154" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F154" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G154">
         <v>510</v>
@@ -6247,25 +6715,28 @@
       <c r="H154">
         <v>7237025</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B155" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D155" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E155" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F155" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G155">
         <v>54530</v>
@@ -6273,25 +6744,28 @@
       <c r="H155">
         <v>5535262</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B156" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D156" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E156" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F156" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G156">
         <v>16610</v>
@@ -6299,25 +6773,28 @@
       <c r="H156">
         <v>5439318</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B157" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D157" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E157" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F157" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G157">
         <v>22000</v>
@@ -6325,25 +6802,28 @@
       <c r="H157">
         <v>2074788</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B158" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D158" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E158" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F158" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G158">
         <v>1920</v>
@@ -6351,25 +6831,28 @@
       <c r="H158">
         <v>587482</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B159" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D159" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E159" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F159" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G159">
         <v>88</v>
@@ -6377,25 +6860,28 @@
       <c r="H159">
         <v>13908129</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B160" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D160" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E160" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F160" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G160">
         <v>5430</v>
@@ -6403,25 +6889,28 @@
       <c r="H160">
         <v>55291225</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B161" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D161" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E161" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F161" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G161">
         <v>27180</v>
@@ -6429,25 +6918,28 @@
       <c r="H161">
         <v>46397664</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="I161" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D162" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E162" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F162" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G162">
         <v>3840</v>
@@ -6455,25 +6947,28 @@
       <c r="H162">
         <v>20714040</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="I162" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B163" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D163" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E163" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F163" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G163">
         <v>2379</v>
@@ -6481,25 +6976,28 @@
       <c r="H163">
         <v>38647803</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B164" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D164" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E164" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F164" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G164">
         <v>6020</v>
@@ -6507,25 +7005,28 @@
       <c r="H164">
         <v>553208</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B165" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D165" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E165" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F165" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G165">
         <v>2960</v>
@@ -6533,25 +7034,28 @@
       <c r="H165">
         <v>1319011</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B166" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D166" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E166" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F166" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G166">
         <v>52590</v>
@@ -6559,25 +7063,28 @@
       <c r="H166">
         <v>9763565</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B167" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D167" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E167" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F167" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G167">
         <v>80560</v>
@@ -6585,25 +7092,28 @@
       <c r="H167">
         <v>8319769</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B168" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D168" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E168" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F168" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G168">
         <v>1178</v>
@@ -6611,25 +7121,28 @@
       <c r="H168">
         <v>18734987</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="I168" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B169" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D169" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E169" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F169" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G169">
         <v>990</v>
@@ -6637,25 +7150,28 @@
       <c r="H169">
         <v>8548651</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D170" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E170" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F170" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G170">
         <v>5960</v>
@@ -6663,25 +7179,28 @@
       <c r="H170">
         <v>68657600</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="I170" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B171" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D171" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E171" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F171" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G171">
         <v>4880</v>
@@ -6689,25 +7208,28 @@
       <c r="H171">
         <v>2079308</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="I171" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B172" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D172" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E172" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F172" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G172">
         <v>1790</v>
@@ -6715,25 +7237,28 @@
       <c r="H172">
         <v>1240977</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B173" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D173" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E173" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F173" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G173">
         <v>610</v>
@@ -6741,25 +7266,28 @@
       <c r="H173">
         <v>7416802</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B174" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D174" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E174" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F174" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G174">
         <v>4010</v>
@@ -6767,25 +7295,28 @@
       <c r="H174">
         <v>106364</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D175" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E175" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F175" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G175">
         <v>15350</v>
@@ -6793,25 +7324,28 @@
       <c r="H175">
         <v>1360092</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="I175" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B176" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D176" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E176" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F176" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G176">
         <v>3500</v>
@@ -6819,25 +7353,28 @@
       <c r="H176">
         <v>11273661</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B177" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D177" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E177" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F177" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G177">
         <v>10930</v>
@@ -6845,25 +7382,28 @@
       <c r="H177">
         <v>78271472</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="I177" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B178" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C178" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D178" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E178" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F178" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G178">
         <v>6650</v>
@@ -6871,25 +7411,28 @@
       <c r="H178">
         <v>5565284</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D179" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E179" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F179" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G179">
         <v>4970</v>
@@ -6897,25 +7440,28 @@
       <c r="H179">
         <v>11001</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B180" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D180" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E180" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F180" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G180">
         <v>600</v>
@@ -6923,25 +7469,28 @@
       <c r="H180">
         <v>40144870</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D181" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E181" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F181" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G181">
         <v>2388</v>
@@ -6949,25 +7498,28 @@
       <c r="H181">
         <v>44657704</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="I181" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B182" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D182" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E182" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F182" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G182">
         <v>39130</v>
@@ -6975,25 +7527,28 @@
       <c r="H182">
         <v>9154302</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B183" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D183" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E183" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F183" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G183">
         <v>40530</v>
@@ -7001,25 +7556,28 @@
       <c r="H183">
         <v>65397080</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="I183" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B184" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D184" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E184" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F184" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G184">
         <v>905</v>
@@ -7027,25 +7585,28 @@
       <c r="H184">
         <v>53879957</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="I184" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D185" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E185" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F185" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G185">
         <v>58270</v>
@@ -7053,25 +7614,28 @@
       <c r="H185">
         <v>319929162</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="I185" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B186" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D186" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E186" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F186" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G186">
         <v>15250</v>
@@ -7079,25 +7643,28 @@
       <c r="H186">
         <v>3431552</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="I186" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B187" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D187" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E187" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F187" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G187">
         <v>1980</v>
@@ -7105,25 +7672,28 @@
       <c r="H187">
         <v>30976021</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B188" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D188" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E188" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F188" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G188">
         <v>2920</v>
@@ -7131,25 +7701,28 @@
       <c r="H188">
         <v>264603</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="I188" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B189" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D189" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E189" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F189" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G189">
         <v>8991</v>
@@ -7157,25 +7730,28 @@
       <c r="H189">
         <v>31155134</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="I189" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B190" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D190" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E190" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F190" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G190">
         <v>2170</v>
@@ -7183,25 +7759,28 @@
       <c r="H190">
         <v>93571567</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D191" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E191" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F191" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G191">
         <v>1030</v>
@@ -7209,25 +7788,28 @@
       <c r="H191">
         <v>26916207</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="I191" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B192" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D192" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E192" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F192" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G192">
         <v>1300</v>
@@ -7235,25 +7817,28 @@
       <c r="H192">
         <v>16100587</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="I192" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B193" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D193" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E193" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F193" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G193">
         <v>910</v>
@@ -7261,31 +7846,37 @@
       <c r="H193">
         <v>15777451</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="I193" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D194" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E194" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F194" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G194">
         <v>546</v>
       </c>
       <c r="H194">
         <v>11882136</v>
+      </c>
+      <c r="I194" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
